--- a/localized/en-us/games/books/bookdata/en_232/en_232.xlsx
+++ b/localized/en-us/games/books/bookdata/en_232/en_232.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejaffe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLEXP-Team-KitkitSchool-Hindi-Assets-MainApp\localized\en-us\games\books\bookdata\en_232\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5156877-1055-420C-908F-9210079B129A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22060" yWindow="3800" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,31 +30,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Hamisi’s Bicycle</t>
-  </si>
-  <si>
-    <t>Hamisi has a bicycle.</t>
-  </si>
-  <si>
-    <t>Hamisi rides his bicycle to school.</t>
-  </si>
-  <si>
-    <t>Hamisi rides his bicycle to the store.</t>
-  </si>
-  <si>
-    <t>Hamisi rides his bicycle to the market.</t>
-  </si>
-  <si>
-    <t>Hamisi rides his bicycle on the street.</t>
-  </si>
-  <si>
-    <t>Hamisi loves his bicycle.</t>
+    <t>Akash’s Bicycle</t>
+  </si>
+  <si>
+    <t>Akash has a bicycle.</t>
+  </si>
+  <si>
+    <t>Akash rides his bicycle to school.</t>
+  </si>
+  <si>
+    <t>Akash rides his bicycle to the store.</t>
+  </si>
+  <si>
+    <t>Akash rides his bicycle to the market.</t>
+  </si>
+  <si>
+    <t>Akash rides his bicycle on the street.</t>
+  </si>
+  <si>
+    <t>Akash loves his bicycle.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -113,6 +114,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,51 +384,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>